--- a/myscripts/dbtest.xlsx
+++ b/myscripts/dbtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knowledge\CS50W\Projects\FinalProject\myscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F18FDFE-A1AB-4ADD-BB5F-08B8DC2D54BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BB4CC2-9EAD-48C2-9475-BF4241093BF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1964,7 +1964,7 @@
   <dimension ref="A2:J247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,6 +4893,9 @@
       <c r="B101" t="s">
         <v>224</v>
       </c>
+      <c r="D101" s="1">
+        <v>43174</v>
+      </c>
       <c r="E101" t="s">
         <v>225</v>
       </c>
@@ -7512,6 +7515,9 @@
       </c>
       <c r="B190" t="s">
         <v>414</v>
+      </c>
+      <c r="D190" s="1">
+        <v>42604</v>
       </c>
       <c r="E190" t="s">
         <v>415</v>
